--- a/Universal_Driver_soft/UniversalDriver_v3.1_step/Map Registers UDriver_3.1_eth.xlsx
+++ b/Universal_Driver_soft/UniversalDriver_v3.1_step/Map Registers UDriver_3.1_eth.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1C2055D-137F-40F9-97E5-43D8E11C9C8D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA98F8D1-6F73-4D79-8ED2-4365B9408518}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5760" yWindow="0" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="68">
   <si>
     <t>Десятичная</t>
   </si>
@@ -212,13 +212,25 @@
   </si>
   <si>
     <t>Направление вращения</t>
+  </si>
+  <si>
+    <t>set Mode rotation</t>
+  </si>
+  <si>
+    <t>установка режима вращения мотора 1 крутится до счетчики 0 крутится бесконечно</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> get Mode rotation</t>
+  </si>
+  <si>
+    <t>чтение режима вращения мотора 1 крутится до счетчики 0 крутится бесконечно</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -237,6 +249,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -280,7 +299,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -521,19 +540,6 @@
         <color indexed="64"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -622,7 +628,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -664,81 +670,78 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="16" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="16" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -1108,12 +1111,12 @@
       <c r="F1" s="18"/>
     </row>
     <row r="2" spans="1:7" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="20"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
+      <c r="A2" s="42"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
     </row>
     <row r="3" spans="1:7" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
@@ -1143,15 +1146,15 @@
       <c r="B4" s="6">
         <v>1</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="E4" s="24"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
     </row>
     <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
@@ -1160,17 +1163,17 @@
       <c r="B5" s="7">
         <v>2</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="E5" s="24" t="s">
+      <c r="E5" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
     </row>
     <row r="6" spans="1:7" ht="59.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
@@ -1179,17 +1182,17 @@
       <c r="B6" s="6">
         <v>3</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="D6" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="E6" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
     </row>
     <row r="7" spans="1:7" ht="73.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
@@ -1198,17 +1201,17 @@
       <c r="B7" s="7">
         <v>4</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="C7" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="E7" s="24">
+      <c r="E7" s="22">
         <v>65000</v>
       </c>
-      <c r="F7" s="29"/>
-      <c r="G7" s="25"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="23"/>
     </row>
     <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
@@ -1217,17 +1220,17 @@
       <c r="B8" s="6">
         <v>5</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="D8" s="30" t="s">
+      <c r="D8" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="E8" s="24">
+      <c r="E8" s="22">
         <v>65000</v>
       </c>
-      <c r="F8" s="25"/>
-      <c r="G8" s="31"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="29"/>
     </row>
     <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
@@ -1236,17 +1239,17 @@
       <c r="B9" s="7">
         <v>6</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="D9" s="23" t="s">
+      <c r="D9" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="E9" s="24" t="s">
+      <c r="E9" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
     </row>
     <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
@@ -1255,17 +1258,17 @@
       <c r="B10" s="6">
         <v>7</v>
       </c>
-      <c r="C10" s="31" t="s">
+      <c r="C10" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="D10" s="30" t="s">
+      <c r="D10" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="E10" s="24" t="s">
+      <c r="E10" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="F10" s="25"/>
-      <c r="G10" s="31"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="29"/>
     </row>
     <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
@@ -1274,17 +1277,17 @@
       <c r="B11" s="7">
         <v>8</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="D11" s="23" t="s">
+      <c r="D11" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="E11" s="24" t="s">
+      <c r="E11" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
     </row>
     <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="10" t="s">
@@ -1293,43 +1296,55 @@
       <c r="B12" s="6">
         <v>9</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="D12" s="23" t="s">
+      <c r="D12" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="E12" s="24" t="s">
+      <c r="E12" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="F12" s="25"/>
-      <c r="G12" s="32"/>
-    </row>
-    <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F12" s="23"/>
+      <c r="G12" s="30"/>
+    </row>
+    <row r="13" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="7">
         <v>10</v>
       </c>
-      <c r="C13" s="22"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="36"/>
-    </row>
-    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C13" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="32"/>
+      <c r="G13" s="33"/>
+    </row>
+    <row r="14" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B14" s="6">
         <v>11</v>
       </c>
-      <c r="C14" s="37"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="41"/>
+      <c r="C14" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="36"/>
+      <c r="G14" s="37"/>
     </row>
     <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="10" t="s">
@@ -1338,11 +1353,11 @@
       <c r="B15" s="7">
         <v>12</v>
       </c>
-      <c r="C15" s="36"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="41"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="37"/>
     </row>
     <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="10" t="s">
@@ -1351,11 +1366,11 @@
       <c r="B16" s="6">
         <v>13</v>
       </c>
-      <c r="C16" s="41"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="41"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="37"/>
     </row>
     <row r="17" spans="1:61" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="12" t="s">
@@ -1364,15 +1379,15 @@
       <c r="B17" s="7">
         <v>14</v>
       </c>
-      <c r="C17" s="41" t="s">
+      <c r="C17" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="38"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="40" t="s">
+      <c r="D17" s="34"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="G17" s="41"/>
+      <c r="G17" s="37"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
@@ -1435,11 +1450,11 @@
       <c r="B18" s="6">
         <v>15</v>
       </c>
-      <c r="C18" s="42"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="41"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="37"/>
     </row>
     <row r="19" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="11" t="s">
@@ -1448,11 +1463,11 @@
       <c r="B19" s="7">
         <v>16</v>
       </c>
-      <c r="C19" s="41"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="40"/>
-      <c r="G19" s="41"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="37"/>
     </row>
     <row r="20" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="10" t="s">
@@ -1461,11 +1476,11 @@
       <c r="B20" s="6">
         <v>17</v>
       </c>
-      <c r="C20" s="41"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="41"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="37"/>
     </row>
     <row r="21" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="10" t="s">
@@ -1474,11 +1489,11 @@
       <c r="B21" s="7">
         <v>18</v>
       </c>
-      <c r="C21" s="41"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="40"/>
-      <c r="G21" s="41"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="37"/>
     </row>
     <row r="22" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="10" t="s">
@@ -1487,11 +1502,11 @@
       <c r="B22" s="6">
         <v>19</v>
       </c>
-      <c r="C22" s="41"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="41"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="37"/>
     </row>
     <row r="23" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="10" t="s">
@@ -1500,11 +1515,11 @@
       <c r="B23" s="6">
         <v>20</v>
       </c>
-      <c r="C23" s="41"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="41"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="37"/>
     </row>
     <row r="24" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="10" t="s">
@@ -1513,11 +1528,11 @@
       <c r="B24" s="7">
         <v>21</v>
       </c>
-      <c r="C24" s="41"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="41"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="37"/>
     </row>
     <row r="25" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="10" t="s">
@@ -1526,11 +1541,11 @@
       <c r="B25" s="6">
         <v>22</v>
       </c>
-      <c r="C25" s="41"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="43"/>
-      <c r="F25" s="40"/>
-      <c r="G25" s="41"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="37"/>
     </row>
     <row r="26" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="10" t="s">
@@ -1539,11 +1554,11 @@
       <c r="B26" s="6">
         <v>23</v>
       </c>
-      <c r="C26" s="41"/>
-      <c r="D26" s="38"/>
-      <c r="E26" s="43"/>
-      <c r="F26" s="40"/>
-      <c r="G26" s="41"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="37"/>
     </row>
     <row r="27" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="10" t="s">
@@ -1552,11 +1567,11 @@
       <c r="B27" s="7">
         <v>24</v>
       </c>
-      <c r="C27" s="41"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="40"/>
-      <c r="G27" s="41"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="37"/>
     </row>
     <row r="28" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="10" t="s">
@@ -1565,11 +1580,11 @@
       <c r="B28" s="6">
         <v>25</v>
       </c>
-      <c r="C28" s="44"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="39"/>
-      <c r="F28" s="40"/>
-      <c r="G28" s="41"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="37"/>
     </row>
     <row r="29" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="10" t="s">
@@ -1578,11 +1593,11 @@
       <c r="B29" s="6">
         <v>26</v>
       </c>
-      <c r="C29" s="41"/>
-      <c r="D29" s="38"/>
-      <c r="E29" s="39"/>
-      <c r="F29" s="40"/>
-      <c r="G29" s="41"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="37"/>
     </row>
     <row r="30" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="10" t="s">
@@ -1591,11 +1606,11 @@
       <c r="B30" s="6">
         <v>27</v>
       </c>
-      <c r="C30" s="44"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="39"/>
-      <c r="F30" s="40"/>
-      <c r="G30" s="41"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="34"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="37"/>
     </row>
     <row r="31" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="10" t="s">
@@ -1604,11 +1619,11 @@
       <c r="B31" s="7">
         <v>28</v>
       </c>
-      <c r="C31" s="41"/>
-      <c r="D31" s="38"/>
-      <c r="E31" s="39"/>
-      <c r="F31" s="40"/>
-      <c r="G31" s="41"/>
+      <c r="C31" s="37"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="35"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="37"/>
     </row>
     <row r="32" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="10" t="s">
@@ -1617,11 +1632,11 @@
       <c r="B32" s="6">
         <v>29</v>
       </c>
-      <c r="C32" s="41"/>
-      <c r="D32" s="38"/>
-      <c r="E32" s="39"/>
-      <c r="F32" s="40"/>
-      <c r="G32" s="41"/>
+      <c r="C32" s="37"/>
+      <c r="D32" s="34"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="37"/>
     </row>
     <row r="33" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="10" t="s">
@@ -1630,11 +1645,11 @@
       <c r="B33" s="6">
         <v>30</v>
       </c>
-      <c r="C33" s="41"/>
-      <c r="D33" s="38"/>
-      <c r="E33" s="39"/>
-      <c r="F33" s="40"/>
-      <c r="G33" s="41"/>
+      <c r="C33" s="37"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="35"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="37"/>
     </row>
     <row r="34" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="10" t="s">
@@ -1643,11 +1658,11 @@
       <c r="B34" s="6">
         <v>31</v>
       </c>
-      <c r="C34" s="41"/>
-      <c r="D34" s="38"/>
-      <c r="E34" s="39"/>
-      <c r="F34" s="40"/>
-      <c r="G34" s="41"/>
+      <c r="C34" s="37"/>
+      <c r="D34" s="34"/>
+      <c r="E34" s="35"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="37"/>
     </row>
     <row r="35" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="10" t="s">
@@ -1656,11 +1671,11 @@
       <c r="B35" s="6">
         <v>32</v>
       </c>
-      <c r="C35" s="41"/>
-      <c r="D35" s="38"/>
-      <c r="E35" s="39"/>
-      <c r="F35" s="40"/>
-      <c r="G35" s="41"/>
+      <c r="C35" s="37"/>
+      <c r="D35" s="34"/>
+      <c r="E35" s="35"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="37"/>
     </row>
     <row r="36" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="10" t="s">
@@ -1669,11 +1684,11 @@
       <c r="B36" s="6">
         <v>33</v>
       </c>
-      <c r="C36" s="41"/>
-      <c r="D36" s="38"/>
-      <c r="E36" s="39"/>
-      <c r="F36" s="40"/>
-      <c r="G36" s="41"/>
+      <c r="C36" s="37"/>
+      <c r="D36" s="34"/>
+      <c r="E36" s="35"/>
+      <c r="F36" s="36"/>
+      <c r="G36" s="37"/>
     </row>
     <row r="37" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="10" t="s">
@@ -1682,11 +1697,11 @@
       <c r="B37" s="6">
         <v>34</v>
       </c>
-      <c r="C37" s="41"/>
-      <c r="D37" s="45"/>
-      <c r="E37" s="39"/>
-      <c r="F37" s="40"/>
-      <c r="G37" s="41"/>
+      <c r="C37" s="37"/>
+      <c r="D37" s="41"/>
+      <c r="E37" s="35"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="37"/>
     </row>
     <row r="38" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="10" t="s">
@@ -1695,11 +1710,11 @@
       <c r="B38" s="6">
         <v>35</v>
       </c>
-      <c r="C38" s="41"/>
-      <c r="D38" s="45"/>
-      <c r="E38" s="39"/>
-      <c r="F38" s="40"/>
-      <c r="G38" s="41"/>
+      <c r="C38" s="37"/>
+      <c r="D38" s="41"/>
+      <c r="E38" s="35"/>
+      <c r="F38" s="36"/>
+      <c r="G38" s="37"/>
     </row>
     <row r="39" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="10" t="s">
@@ -1708,11 +1723,11 @@
       <c r="B39" s="7">
         <v>36</v>
       </c>
-      <c r="C39" s="41"/>
-      <c r="D39" s="45"/>
-      <c r="E39" s="39"/>
-      <c r="F39" s="40"/>
-      <c r="G39" s="41"/>
+      <c r="C39" s="37"/>
+      <c r="D39" s="41"/>
+      <c r="E39" s="35"/>
+      <c r="F39" s="36"/>
+      <c r="G39" s="37"/>
     </row>
     <row r="40" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="10" t="s">
@@ -1721,11 +1736,11 @@
       <c r="B40" s="6">
         <v>37</v>
       </c>
-      <c r="C40" s="41"/>
-      <c r="D40" s="45"/>
-      <c r="E40" s="39"/>
-      <c r="F40" s="40"/>
-      <c r="G40" s="41"/>
+      <c r="C40" s="37"/>
+      <c r="D40" s="41"/>
+      <c r="E40" s="35"/>
+      <c r="F40" s="36"/>
+      <c r="G40" s="37"/>
     </row>
     <row r="41" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="10" t="s">
@@ -1734,11 +1749,11 @@
       <c r="B41" s="6">
         <v>38</v>
       </c>
-      <c r="C41" s="41"/>
-      <c r="D41" s="38"/>
-      <c r="E41" s="39"/>
-      <c r="F41" s="40"/>
-      <c r="G41" s="41"/>
+      <c r="C41" s="37"/>
+      <c r="D41" s="34"/>
+      <c r="E41" s="35"/>
+      <c r="F41" s="36"/>
+      <c r="G41" s="37"/>
     </row>
     <row r="42" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="10" t="s">
@@ -1747,11 +1762,11 @@
       <c r="B42" s="6">
         <v>39</v>
       </c>
-      <c r="C42" s="41"/>
-      <c r="D42" s="38"/>
-      <c r="E42" s="39"/>
-      <c r="F42" s="40"/>
-      <c r="G42" s="41"/>
+      <c r="C42" s="37"/>
+      <c r="D42" s="34"/>
+      <c r="E42" s="35"/>
+      <c r="F42" s="36"/>
+      <c r="G42" s="37"/>
     </row>
     <row r="43" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="10" t="s">
@@ -1760,11 +1775,11 @@
       <c r="B43" s="6">
         <v>40</v>
       </c>
-      <c r="C43" s="41"/>
-      <c r="D43" s="38"/>
-      <c r="E43" s="39"/>
-      <c r="F43" s="40"/>
-      <c r="G43" s="41"/>
+      <c r="C43" s="37"/>
+      <c r="D43" s="34"/>
+      <c r="E43" s="35"/>
+      <c r="F43" s="36"/>
+      <c r="G43" s="37"/>
     </row>
     <row r="44" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="10" t="s">
@@ -1773,11 +1788,11 @@
       <c r="B44" s="6">
         <v>41</v>
       </c>
-      <c r="C44" s="41"/>
-      <c r="D44" s="45"/>
-      <c r="E44" s="39"/>
-      <c r="F44" s="40"/>
-      <c r="G44" s="41"/>
+      <c r="C44" s="37"/>
+      <c r="D44" s="41"/>
+      <c r="E44" s="35"/>
+      <c r="F44" s="36"/>
+      <c r="G44" s="37"/>
     </row>
     <row r="45" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="10" t="s">
@@ -1786,11 +1801,11 @@
       <c r="B45" s="6">
         <v>42</v>
       </c>
-      <c r="C45" s="41"/>
-      <c r="D45" s="38"/>
-      <c r="E45" s="39"/>
-      <c r="F45" s="40"/>
-      <c r="G45" s="41"/>
+      <c r="C45" s="37"/>
+      <c r="D45" s="34"/>
+      <c r="E45" s="35"/>
+      <c r="F45" s="36"/>
+      <c r="G45" s="37"/>
     </row>
     <row r="46" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="10" t="s">
@@ -1799,11 +1814,11 @@
       <c r="B46" s="6">
         <v>43</v>
       </c>
-      <c r="C46" s="41"/>
-      <c r="D46" s="38"/>
-      <c r="E46" s="39"/>
-      <c r="F46" s="40"/>
-      <c r="G46" s="41"/>
+      <c r="C46" s="37"/>
+      <c r="D46" s="34"/>
+      <c r="E46" s="35"/>
+      <c r="F46" s="36"/>
+      <c r="G46" s="37"/>
     </row>
     <row r="47" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="10" t="s">
@@ -1812,11 +1827,11 @@
       <c r="B47" s="7">
         <v>44</v>
       </c>
-      <c r="C47" s="41"/>
-      <c r="D47" s="45"/>
-      <c r="E47" s="39"/>
-      <c r="F47" s="40"/>
-      <c r="G47" s="41"/>
+      <c r="C47" s="37"/>
+      <c r="D47" s="41"/>
+      <c r="E47" s="35"/>
+      <c r="F47" s="36"/>
+      <c r="G47" s="37"/>
     </row>
     <row r="48" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="10" t="s">
@@ -1825,11 +1840,11 @@
       <c r="B48" s="6">
         <v>45</v>
       </c>
-      <c r="C48" s="41"/>
-      <c r="D48" s="38"/>
-      <c r="E48" s="39"/>
-      <c r="F48" s="40"/>
-      <c r="G48" s="41"/>
+      <c r="C48" s="37"/>
+      <c r="D48" s="34"/>
+      <c r="E48" s="35"/>
+      <c r="F48" s="36"/>
+      <c r="G48" s="37"/>
     </row>
     <row r="49" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="10" t="s">
@@ -1838,11 +1853,11 @@
       <c r="B49" s="6">
         <v>46</v>
       </c>
-      <c r="C49" s="41"/>
-      <c r="D49" s="38"/>
-      <c r="E49" s="39"/>
-      <c r="F49" s="40"/>
-      <c r="G49" s="41"/>
+      <c r="C49" s="37"/>
+      <c r="D49" s="34"/>
+      <c r="E49" s="35"/>
+      <c r="F49" s="36"/>
+      <c r="G49" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Universal_Driver_soft/UniversalDriver_v3.1_step/Map Registers UDriver_3.1_eth.xlsx
+++ b/Universal_Driver_soft/UniversalDriver_v3.1_step/Map Registers UDriver_3.1_eth.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA98F8D1-6F73-4D79-8ED2-4365B9408518}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD1523CC-5403-4E74-A355-72D4A6B9BEB3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="0" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="75">
   <si>
     <t>Десятичная</t>
   </si>
@@ -224,6 +224,27 @@
   </si>
   <si>
     <t>чтение режима вращения мотора 1 крутится до счетчики 0 крутится бесконечно</t>
+  </si>
+  <si>
+    <t>C3A0D0N0x</t>
+  </si>
+  <si>
+    <t>C11A0D0N0x</t>
+  </si>
+  <si>
+    <t>C10A0D1N0x</t>
+  </si>
+  <si>
+    <t>C9A0D0N0x</t>
+  </si>
+  <si>
+    <t>C7A0D0N0x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C1A0D1N0x       C1A0D0N0x        </t>
+  </si>
+  <si>
+    <t>C2A0D900N0x</t>
   </si>
 </sst>
 </file>
@@ -739,11 +760,11 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1090,8 +1111,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BI49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1111,12 +1132,12 @@
       <c r="F1" s="18"/>
     </row>
     <row r="2" spans="1:7" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="42"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
+      <c r="A2" s="43"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
     </row>
     <row r="3" spans="1:7" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
@@ -1153,7 +1174,9 @@
         <v>47</v>
       </c>
       <c r="E4" s="22"/>
-      <c r="F4" s="23"/>
+      <c r="F4" s="23" t="s">
+        <v>73</v>
+      </c>
       <c r="G4" s="23"/>
     </row>
     <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1172,7 +1195,9 @@
       <c r="E5" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="F5" s="23"/>
+      <c r="F5" s="23" t="s">
+        <v>74</v>
+      </c>
       <c r="G5" s="23"/>
     </row>
     <row r="6" spans="1:7" ht="59.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1191,7 +1216,9 @@
       <c r="E6" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="F6" s="23"/>
+      <c r="F6" s="23" t="s">
+        <v>68</v>
+      </c>
       <c r="G6" s="23"/>
     </row>
     <row r="7" spans="1:7" ht="73.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1267,7 +1294,9 @@
       <c r="E10" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="F10" s="23"/>
+      <c r="F10" s="23" t="s">
+        <v>72</v>
+      </c>
       <c r="G10" s="29"/>
     </row>
     <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1305,7 +1334,9 @@
       <c r="E12" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="F12" s="23"/>
+      <c r="F12" s="32" t="s">
+        <v>71</v>
+      </c>
       <c r="G12" s="30"/>
     </row>
     <row r="13" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -1324,7 +1355,9 @@
       <c r="E13" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="32"/>
+      <c r="F13" s="32" t="s">
+        <v>70</v>
+      </c>
       <c r="G13" s="33"/>
     </row>
     <row r="14" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -1334,7 +1367,7 @@
       <c r="B14" s="6">
         <v>11</v>
       </c>
-      <c r="C14" s="44" t="s">
+      <c r="C14" s="42" t="s">
         <v>66</v>
       </c>
       <c r="D14" s="31" t="s">
@@ -1343,7 +1376,9 @@
       <c r="E14" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="F14" s="36"/>
+      <c r="F14" s="36" t="s">
+        <v>69</v>
+      </c>
       <c r="G14" s="37"/>
     </row>
     <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
